--- a/R.2019.2/sample.survey/sample.survey.09A.xlsx
+++ b/R.2019.2/sample.survey/sample.survey.09A.xlsx
@@ -1,21 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tolkien/work/misc/R.2019.2/sample.survey/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD31291-7F41-B14D-9812-B0C4908F68BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="15600" windowHeight="11595"/>
+    <workbookView xWindow="7880" yWindow="2100" windowWidth="15600" windowHeight="11600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9강 엑셀실습" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="homework" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="69">
   <si>
     <t>일련번호</t>
   </si>
@@ -200,22 +215,53 @@
   </si>
   <si>
     <t>교재 166쪽 엑셀 실습 예제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙제 5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>y_s</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V(y_s)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s^2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>((N-n)/N)*s^2/n</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>신뢰구간</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="#,##0_);[Red]\(#,##0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,7 +387,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
@@ -372,14 +418,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -402,11 +448,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -416,20 +462,20 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="7" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -440,16 +486,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="쉼표 [0] 2" xfId="2"/>
+    <cellStyle name="쉼표 [0] 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
-    <cellStyle name="표준 3" xfId="3"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="표준 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -498,7 +547,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,9 +580,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -566,6 +632,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -741,39 +824,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="10.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="5" customWidth="1"/>
-    <col min="4" max="5" width="13.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="5"/>
-    <col min="8" max="8" width="10.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="B1" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="F2" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +873,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="21" thickBot="1">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -822,7 +905,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -854,7 +937,7 @@
         <v>217228</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="22">
         <v>3</v>
       </c>
@@ -886,7 +969,7 @@
         <v>358319</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -918,7 +1001,7 @@
         <v>374543</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -950,7 +1033,7 @@
         <v>462500</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -982,7 +1065,7 @@
         <v>543559</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1014,7 +1097,7 @@
         <v>293314.06231923692</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12">
       <c r="A11" s="22">
         <v>8</v>
       </c>
@@ -1046,7 +1129,7 @@
         <v>489145.53768076305</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1073,7 +1156,7 @@
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1100,7 +1183,7 @@
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1121,7 +1204,7 @@
         <v>2396872921.3920021</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -1138,7 +1221,7 @@
         <v>448112</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="22">
         <v>13</v>
       </c>
@@ -1155,7 +1238,7 @@
         <v>307562</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -1172,7 +1255,7 @@
         <v>363343</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -1189,7 +1272,7 @@
         <v>466456</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -1206,7 +1289,7 @@
         <v>543559</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -1223,7 +1306,7 @@
         <v>401239</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="22">
         <v>18</v>
       </c>
@@ -1240,7 +1323,7 @@
         <v>230447</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -1257,7 +1340,7 @@
         <v>374543</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -1274,7 +1357,7 @@
         <v>390197</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -1291,7 +1374,7 @@
         <v>511185</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -1308,7 +1391,7 @@
         <v>388220</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="22">
         <v>23</v>
       </c>
@@ -1325,7 +1408,7 @@
         <v>522198</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="6">
         <v>24</v>
       </c>
@@ -1342,7 +1425,7 @@
         <v>640732</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="6">
         <v>25</v>
       </c>
@@ -1359,12 +1442,12 @@
         <v>462500</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="D29" s="21"/>
       <c r="E29" s="28"/>
     </row>
   </sheetData>
-  <sortState ref="A2:F26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F26">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1374,21 +1457,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="4" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1405,7 +1488,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="20">
       <c r="A2" s="6">
         <v>2</v>
       </c>
@@ -1425,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="20">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1445,7 +1528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="20">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -1480,7 +1563,7 @@
         <v>217228</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="20">
       <c r="A5" s="6">
         <v>18</v>
       </c>
@@ -1515,7 +1598,7 @@
         <v>358319</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="20">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1550,7 +1633,7 @@
         <v>374543</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="20">
       <c r="A7" s="6">
         <v>9</v>
       </c>
@@ -1585,7 +1668,7 @@
         <v>462500</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="20">
       <c r="A8" s="6">
         <v>13</v>
       </c>
@@ -1620,7 +1703,7 @@
         <v>543559</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="20">
       <c r="A9" s="22">
         <v>5</v>
       </c>
@@ -1640,7 +1723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="20">
       <c r="A10" s="6">
         <v>10</v>
       </c>
@@ -1660,7 +1743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="20">
       <c r="A11" s="6">
         <v>22</v>
       </c>
@@ -1680,7 +1763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="20">
       <c r="A12" s="6">
         <v>14</v>
       </c>
@@ -1700,7 +1783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="20">
       <c r="A13" s="6">
         <v>6</v>
       </c>
@@ -1720,7 +1803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="20">
       <c r="A14" s="22">
         <v>19</v>
       </c>
@@ -1740,7 +1823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="20">
       <c r="A15" s="6">
         <v>17</v>
       </c>
@@ -1760,7 +1843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="20">
       <c r="A16" s="6">
         <v>20</v>
       </c>
@@ -1780,7 +1863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="20">
       <c r="A17" s="6">
         <v>7</v>
       </c>
@@ -1800,7 +1883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="20">
       <c r="A18" s="6">
         <v>8</v>
       </c>
@@ -1820,7 +1903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="20">
       <c r="A19" s="22">
         <v>25</v>
       </c>
@@ -1840,7 +1923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="20">
       <c r="A20" s="6">
         <v>12</v>
       </c>
@@ -1860,7 +1943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="20">
       <c r="A21" s="6">
         <v>15</v>
       </c>
@@ -1880,7 +1963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="20">
       <c r="A22" s="6">
         <v>23</v>
       </c>
@@ -1900,7 +1983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="20">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -1920,7 +2003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="20">
       <c r="A24" s="22">
         <v>16</v>
       </c>
@@ -1940,7 +2023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="20">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1960,7 +2043,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="20">
       <c r="A26" s="6">
         <v>11</v>
       </c>
@@ -1981,10 +2064,299 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E26">
     <sortCondition ref="D2"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929BAE34-8D83-6B4E-9658-5AD4F437C1B1}">
+  <dimension ref="B2:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3">
+        <v>1800</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>11.97</v>
+      </c>
+      <c r="G3">
+        <v>12.01</v>
+      </c>
+      <c r="H3">
+        <v>12.03</v>
+      </c>
+      <c r="I3">
+        <v>12.01</v>
+      </c>
+      <c r="J3">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4">
+        <f>COUNT(E3:J8)</f>
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>11.91</v>
+      </c>
+      <c r="F4">
+        <v>11.98</v>
+      </c>
+      <c r="G4">
+        <v>12.03</v>
+      </c>
+      <c r="H4">
+        <v>11.98</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <f>SUM(E3:J8)/C4</f>
+        <v>11.945555555555558</v>
+      </c>
+      <c r="E5">
+        <v>11.87</v>
+      </c>
+      <c r="F5">
+        <v>12.01</v>
+      </c>
+      <c r="G5">
+        <v>11.98</v>
+      </c>
+      <c r="H5">
+        <v>11.87</v>
+      </c>
+      <c r="I5">
+        <v>11.9</v>
+      </c>
+      <c r="J5">
+        <v>11.88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6">
+        <f>_xlfn.VAR.S(E3:J8)</f>
+        <v>5.8082539682539746E-3</v>
+      </c>
+      <c r="E6">
+        <v>12.05</v>
+      </c>
+      <c r="F6">
+        <v>11.87</v>
+      </c>
+      <c r="G6">
+        <v>11.91</v>
+      </c>
+      <c r="H6">
+        <v>11.93</v>
+      </c>
+      <c r="I6">
+        <v>11.94</v>
+      </c>
+      <c r="J6">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="E7">
+        <v>11.75</v>
+      </c>
+      <c r="F7">
+        <v>11.93</v>
+      </c>
+      <c r="G7">
+        <v>11.95</v>
+      </c>
+      <c r="H7">
+        <v>11.97</v>
+      </c>
+      <c r="I7">
+        <v>11.93</v>
+      </c>
+      <c r="J7">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <f>((C3-C4)/C3)*C6/C4</f>
+        <v>1.5811358024691376E-4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8">
+        <v>11.85</v>
+      </c>
+      <c r="F8">
+        <v>11.98</v>
+      </c>
+      <c r="G8">
+        <v>11.87</v>
+      </c>
+      <c r="H8">
+        <v>12.05</v>
+      </c>
+      <c r="I8">
+        <v>12.02</v>
+      </c>
+      <c r="J8">
+        <v>12.04</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9">
+        <f>C5-2*SQRT(C8)</f>
+        <v>11.920406911039647</v>
+      </c>
+      <c r="D9">
+        <f>C5+2*SQRT(C8)</f>
+        <v>11.970704200071468</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <f>C13*100</f>
+        <v>2000</v>
+      </c>
+      <c r="E12">
+        <v>120</v>
+      </c>
+      <c r="F12">
+        <v>119.7</v>
+      </c>
+      <c r="G12">
+        <v>120.1</v>
+      </c>
+      <c r="H12">
+        <v>120.3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13">
+        <f>COUNT(E12:H16)</f>
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>119.1</v>
+      </c>
+      <c r="F13">
+        <v>119.8</v>
+      </c>
+      <c r="G13">
+        <v>120.3</v>
+      </c>
+      <c r="H13">
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14">
+        <f>SUM(E12:H16)/C13</f>
+        <v>119.49999999999997</v>
+      </c>
+      <c r="E14">
+        <v>118.7</v>
+      </c>
+      <c r="F14">
+        <v>120.1</v>
+      </c>
+      <c r="G14">
+        <v>119.8</v>
+      </c>
+      <c r="H14">
+        <v>118.7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15">
+        <f>_xlfn.VAR.S(E12:H16)</f>
+        <v>0.5221052631578933</v>
+      </c>
+      <c r="E15">
+        <v>120.5</v>
+      </c>
+      <c r="F15">
+        <v>118.7</v>
+      </c>
+      <c r="G15">
+        <v>119.1</v>
+      </c>
+      <c r="H15">
+        <v>119.3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="E16">
+        <v>117.5</v>
+      </c>
+      <c r="F16">
+        <v>119.3</v>
+      </c>
+      <c r="G16">
+        <v>119.5</v>
+      </c>
+      <c r="H16">
+        <v>119.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>